--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2703936.346957259</v>
+        <v>2701559.720009893</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>357.4611388756032</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>59.94668330577097</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>76.30362177848144</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>111.5109739231594</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>19.08535881737</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.4227759882135</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>23.94563726208663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>211.4496987473626</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426079</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>51.92096917925229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484071</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223839</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016521</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881301</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968984</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409626</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3478,19 +3478,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079031337</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.2706867570294</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2706867570294</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,7 +4328,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4373,7 +4373,7 @@
         <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071336</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.2765195627319</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1523.808772677367</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>1269.12428447148</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>979.7071144345191</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X4" t="n">
-        <v>751.7175635365018</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.9249843929716</v>
+        <v>445.0465148290278</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.900948886694</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1291.938431946283</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>933.6727333395322</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>547.8844807412879</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>136.8985759516804</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281609</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926628</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926628</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926628</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926628</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926628</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926628</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.500788950816</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4638,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180663</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495381</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105704</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688552</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854586</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450469</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251367</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251367</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800314</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400157</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056586</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786472</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525392</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.90269554958</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180663</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495381</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
         <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105704</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281866</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.000696661112</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1294.583526624151</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>1066.593975726134</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>845.8013965826035</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637303</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279801</v>
@@ -5218,31 +5218,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487559</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.4610805105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854698</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648811</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561185</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.28419561185</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.28419561185</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,34 +5531,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6485,25 +6485,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273905</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>224.3355197601771</v>
       </c>
       <c r="O3" t="n">
-        <v>255.5240487471575</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3273467878337</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P9" t="n">
-        <v>168.743458178063</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.007567503445126e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870966</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.50758019582844</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852252</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286541</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575596</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772888.7093556289</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914273</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914273</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520044</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26366,28 +26366,28 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.574859240165097e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245449</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
-      <c r="C4" t="n">
-        <v>131909.7268316249</v>
-      </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707384</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707363</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707343</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707342</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707372</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6897.424496707436</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707319</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707295</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707335</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707312</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707312</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.77243984476</v>
-      </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-682765.8669559623</v>
       </c>
       <c r="C6" t="n">
+        <v>431985.9166199574</v>
+      </c>
+      <c r="D6" t="n">
         <v>431985.9166199572</v>
       </c>
-      <c r="D6" t="n">
-        <v>431985.9166199577</v>
-      </c>
       <c r="E6" t="n">
-        <v>30211.88380684509</v>
+        <v>30177.14588140871</v>
       </c>
       <c r="F6" t="n">
-        <v>537697.3254313903</v>
+        <v>537662.5875059551</v>
       </c>
       <c r="G6" t="n">
-        <v>537697.3254313903</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="H6" t="n">
-        <v>537697.3254313907</v>
+        <v>537662.5875059551</v>
       </c>
       <c r="I6" t="n">
-        <v>537697.3254313905</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="J6" t="n">
-        <v>370092.147621408</v>
+        <v>370057.4096959723</v>
       </c>
       <c r="K6" t="n">
-        <v>537697.3254313907</v>
+        <v>537662.587505955</v>
       </c>
       <c r="L6" t="n">
-        <v>537697.3254313907</v>
+        <v>537662.5875059552</v>
       </c>
       <c r="M6" t="n">
-        <v>405090.031702464</v>
+        <v>405055.2937770284</v>
       </c>
       <c r="N6" t="n">
-        <v>537697.3254313907</v>
+        <v>537662.587505955</v>
       </c>
       <c r="O6" t="n">
-        <v>537697.3254313907</v>
+        <v>537662.587505955</v>
       </c>
       <c r="P6" t="n">
-        <v>537697.3254313907</v>
+        <v>537662.5875059547</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241337</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996087</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996087</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.27270278787734</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>294.736358314912</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>90.94319932014639</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>174.7161801980412</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>392.462343955584</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27670,7 +27670,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.3083246902555</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745044</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.823193023645</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807504</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>200.2166741445757</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227457</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>485.9276108700244</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,19 +33257,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614911</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33664,7 +33664,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948329</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709962</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
+        <v>615.5326193530511</v>
+      </c>
+      <c r="O3" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="O3" t="n">
-        <v>590.9487307432805</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.587496243485</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>528.7520287839569</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P9" t="n">
-        <v>418.4229873015954</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977098</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683797</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556942</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394727</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,7 +36926,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -37078,7 +37078,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37312,7 +37312,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281453</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
